--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW10.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="RGossF-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="RGossF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +967,7 @@
         <v>1.014647477241821</v>
       </c>
       <c r="I13">
-        <v>0.9933815826730795</v>
+        <v>0.9933815826730794</v>
       </c>
       <c r="J13">
         <v>1.011564850288132</v>
@@ -1046,7 +1046,7 @@
         <v>1.067605000113277</v>
       </c>
       <c r="H15">
-        <v>0.9955707065057027</v>
+        <v>0.9955707065057025</v>
       </c>
       <c r="I15">
         <v>0.9472715231865726</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>1.040610422787536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.636273015090748</v>
+      </c>
+      <c r="D16">
+        <v>2.044356414943652</v>
+      </c>
+      <c r="E16">
+        <v>1.021648733139336</v>
+      </c>
+      <c r="F16">
+        <v>1.636273015090748</v>
+      </c>
+      <c r="G16">
+        <v>0.7430223234523844</v>
+      </c>
+      <c r="H16">
+        <v>2.018785056086185</v>
+      </c>
+      <c r="I16">
+        <v>0.7717809265185523</v>
+      </c>
+      <c r="J16">
+        <v>2.044356414943652</v>
+      </c>
+      <c r="K16">
+        <v>1.533002574041494</v>
+      </c>
+      <c r="L16">
+        <v>1.584637794566121</v>
+      </c>
+      <c r="M16">
+        <v>1.372644411538476</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.636273015090748</v>

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW10.xlsx
@@ -970,7 +970,7 @@
         <v>1.014647477241821</v>
       </c>
       <c r="I13">
-        <v>0.9933815826730794</v>
+        <v>0.9933815826730795</v>
       </c>
       <c r="J13">
         <v>1.011564850288132</v>
@@ -1049,7 +1049,7 @@
         <v>1.067605000113277</v>
       </c>
       <c r="H15">
-        <v>0.9955707065057025</v>
+        <v>0.9955707065057027</v>
       </c>
       <c r="I15">
         <v>0.9472715231865726</v>

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.572532000000002</v>
+        <v>1.636273015090748</v>
       </c>
       <c r="D10">
-        <v>0.0006359999999999099</v>
+        <v>2.044356414943652</v>
       </c>
       <c r="E10">
-        <v>0.7017760000000021</v>
+        <v>1.021648733139336</v>
       </c>
       <c r="F10">
-        <v>4.572532000000002</v>
+        <v>1.636273015090748</v>
       </c>
       <c r="G10">
-        <v>0.04889599999999918</v>
+        <v>0.7430223234523844</v>
       </c>
       <c r="H10">
-        <v>1.932612000000004</v>
+        <v>2.018785056086185</v>
       </c>
       <c r="I10">
-        <v>0.7890480000000004</v>
+        <v>0.7717809265185523</v>
       </c>
       <c r="J10">
-        <v>0.0006359999999999099</v>
+        <v>2.044356414943652</v>
       </c>
       <c r="K10">
-        <v>0.351206000000001</v>
+        <v>1.533002574041494</v>
       </c>
       <c r="L10">
-        <v>2.461869000000002</v>
+        <v>1.584637794566121</v>
       </c>
       <c r="M10">
-        <v>1.340916666666668</v>
+        <v>1.372644411538476</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.651412500000028</v>
+        <v>0.6810375720588527</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.870249251876467</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>1.191963577177698</v>
       </c>
       <c r="F11">
-        <v>7.651412500000028</v>
+        <v>0.6810375720588527</v>
       </c>
       <c r="G11">
-        <v>0.06</v>
+        <v>0.661219373489575</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.700648528094625</v>
       </c>
       <c r="I11">
-        <v>0.4798625</v>
+        <v>0.8612670816559981</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.870249251876467</v>
       </c>
       <c r="K11">
-        <v>0.02</v>
+        <v>1.531106414527083</v>
       </c>
       <c r="L11">
-        <v>3.835706250000014</v>
+        <v>1.106071993292968</v>
       </c>
       <c r="M11">
-        <v>1.371879166666671</v>
+        <v>1.327730897392203</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.726227978342382</v>
+        <v>0.6786364579681472</v>
       </c>
       <c r="D12">
-        <v>0.4302477689856002</v>
+        <v>1.837125260215813</v>
       </c>
       <c r="E12">
-        <v>0.4403918233599986</v>
+        <v>1.194931837644306</v>
       </c>
       <c r="F12">
-        <v>4.726227978342382</v>
+        <v>0.6786364579681472</v>
       </c>
       <c r="G12">
-        <v>0.4606822620160008</v>
+        <v>0.6575035489597678</v>
       </c>
       <c r="H12">
-        <v>0.424115874406405</v>
+        <v>2.708664893745735</v>
       </c>
       <c r="I12">
-        <v>0.7284485060607999</v>
+        <v>0.8644896137906268</v>
       </c>
       <c r="J12">
-        <v>0.4302477689856002</v>
+        <v>1.837125260215813</v>
       </c>
       <c r="K12">
-        <v>0.4353197961727994</v>
+        <v>1.51602854893006</v>
       </c>
       <c r="L12">
-        <v>2.580773887257591</v>
+        <v>1.097332503449103</v>
       </c>
       <c r="M12">
-        <v>1.201685702195198</v>
+        <v>1.323558602054066</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9872582869970196</v>
+        <v>0.6763570335211739</v>
       </c>
       <c r="D13">
-        <v>1.011564850288132</v>
+        <v>1.865759699735092</v>
       </c>
       <c r="E13">
-        <v>0.9878561293054662</v>
+        <v>1.192374955774677</v>
       </c>
       <c r="F13">
-        <v>0.9872582869970196</v>
+        <v>0.6763570335211739</v>
       </c>
       <c r="G13">
-        <v>0.9941458784302897</v>
+        <v>0.6601352927874836</v>
       </c>
       <c r="H13">
-        <v>1.014647477241821</v>
+        <v>2.703125683911524</v>
       </c>
       <c r="I13">
-        <v>0.9933815826730795</v>
+        <v>0.8628365725463188</v>
       </c>
       <c r="J13">
-        <v>1.011564850288132</v>
+        <v>1.865759699735092</v>
       </c>
       <c r="K13">
-        <v>0.9997104897967991</v>
+        <v>1.529067327754884</v>
       </c>
       <c r="L13">
-        <v>0.9934843883969093</v>
+        <v>1.102712180638029</v>
       </c>
       <c r="M13">
-        <v>0.9981423674893014</v>
+        <v>1.326764873046045</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.263421914281793</v>
+        <v>4.572532000000002</v>
       </c>
       <c r="D14">
-        <v>0.822653261232401</v>
+        <v>0.0006359999999999099</v>
       </c>
       <c r="E14">
-        <v>1.096786058537326</v>
+        <v>0.7017760000000021</v>
       </c>
       <c r="F14">
-        <v>1.263421914281793</v>
+        <v>4.572532000000002</v>
       </c>
       <c r="G14">
-        <v>0.9588729589307317</v>
+        <v>0.04889599999999918</v>
       </c>
       <c r="H14">
-        <v>0.6807956322691635</v>
+        <v>1.932612000000004</v>
       </c>
       <c r="I14">
-        <v>0.9946895064433229</v>
+        <v>0.7890480000000004</v>
       </c>
       <c r="J14">
-        <v>0.822653261232401</v>
+        <v>0.0006359999999999099</v>
       </c>
       <c r="K14">
-        <v>0.9597196598848634</v>
+        <v>0.351206000000001</v>
       </c>
       <c r="L14">
-        <v>1.111570787083328</v>
+        <v>2.461869000000002</v>
       </c>
       <c r="M14">
-        <v>0.9695365552824563</v>
+        <v>1.340916666666668</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.046630165138998</v>
+        <v>7.651412500000028</v>
       </c>
       <c r="D15">
-        <v>1.259877008313853</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9267081334668097</v>
+        <v>0.04</v>
       </c>
       <c r="F15">
-        <v>1.046630165138998</v>
+        <v>7.651412500000028</v>
       </c>
       <c r="G15">
-        <v>1.067605000113277</v>
+        <v>0.06</v>
       </c>
       <c r="H15">
-        <v>0.9955707065057027</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9472715231865726</v>
+        <v>0.4798625</v>
       </c>
       <c r="J15">
-        <v>1.259877008313853</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.093292570890331</v>
+        <v>0.02</v>
       </c>
       <c r="L15">
-        <v>1.069961368014665</v>
+        <v>3.835706250000014</v>
       </c>
       <c r="M15">
-        <v>1.040610422787536</v>
+        <v>1.371879166666671</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.636273015090748</v>
+        <v>4.726227978342382</v>
       </c>
       <c r="D16">
-        <v>2.044356414943652</v>
+        <v>0.4302477689856002</v>
       </c>
       <c r="E16">
-        <v>1.021648733139336</v>
+        <v>0.4403918233599986</v>
       </c>
       <c r="F16">
-        <v>1.636273015090748</v>
+        <v>4.726227978342382</v>
       </c>
       <c r="G16">
-        <v>0.7430223234523844</v>
+        <v>0.4606822620160008</v>
       </c>
       <c r="H16">
-        <v>2.018785056086185</v>
+        <v>0.424115874406405</v>
       </c>
       <c r="I16">
-        <v>0.7717809265185523</v>
+        <v>0.7284485060607999</v>
       </c>
       <c r="J16">
-        <v>2.044356414943652</v>
+        <v>0.4302477689856002</v>
       </c>
       <c r="K16">
-        <v>1.533002574041494</v>
+        <v>0.4353197961727994</v>
       </c>
       <c r="L16">
-        <v>1.584637794566121</v>
+        <v>2.580773887257591</v>
       </c>
       <c r="M16">
-        <v>1.372644411538476</v>
+        <v>1.201685702195198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9872582869970196</v>
+      </c>
+      <c r="D17">
+        <v>1.011564850288132</v>
+      </c>
+      <c r="E17">
+        <v>0.9878561293054662</v>
+      </c>
+      <c r="F17">
+        <v>0.9872582869970196</v>
+      </c>
+      <c r="G17">
+        <v>0.9941458784302897</v>
+      </c>
+      <c r="H17">
+        <v>1.014647477241821</v>
+      </c>
+      <c r="I17">
+        <v>0.9933815826730794</v>
+      </c>
+      <c r="J17">
+        <v>1.011564850288132</v>
+      </c>
+      <c r="K17">
+        <v>0.9997104897967991</v>
+      </c>
+      <c r="L17">
+        <v>0.9934843883969093</v>
+      </c>
+      <c r="M17">
+        <v>0.9981423674893014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.263421914281793</v>
+      </c>
+      <c r="D18">
+        <v>0.822653261232401</v>
+      </c>
+      <c r="E18">
+        <v>1.096786058537326</v>
+      </c>
+      <c r="F18">
+        <v>1.263421914281793</v>
+      </c>
+      <c r="G18">
+        <v>0.9588729589307317</v>
+      </c>
+      <c r="H18">
+        <v>0.6807956322691635</v>
+      </c>
+      <c r="I18">
+        <v>0.9946895064433229</v>
+      </c>
+      <c r="J18">
+        <v>0.822653261232401</v>
+      </c>
+      <c r="K18">
+        <v>0.9597196598848634</v>
+      </c>
+      <c r="L18">
+        <v>1.111570787083328</v>
+      </c>
+      <c r="M18">
+        <v>0.9695365552824563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.046630165138998</v>
+      </c>
+      <c r="D19">
+        <v>1.259877008313853</v>
+      </c>
+      <c r="E19">
+        <v>0.9267081334668097</v>
+      </c>
+      <c r="F19">
+        <v>1.046630165138998</v>
+      </c>
+      <c r="G19">
+        <v>1.067605000113277</v>
+      </c>
+      <c r="H19">
+        <v>0.9955707065057025</v>
+      </c>
+      <c r="I19">
+        <v>0.9472715231865726</v>
+      </c>
+      <c r="J19">
+        <v>1.259877008313853</v>
+      </c>
+      <c r="K19">
+        <v>1.093292570890331</v>
+      </c>
+      <c r="L19">
+        <v>1.069961368014665</v>
+      </c>
+      <c r="M19">
+        <v>1.040610422787536</v>
       </c>
     </row>
   </sheetData>
